--- a/PA1/Tablas de optimizacion/Sin_Optimizar.xlsx
+++ b/PA1/Tablas de optimizacion/Sin_Optimizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil\Desktop\Trabajos\Practicas\ADAV\PA1\Tablas de optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC4BC22-86A1-48DF-8EAA-317BA3BDF87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E56D665-4F5F-4F8B-966D-831245EF4B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0A55F03-ED6B-4A8E-9091-67D24FFC1ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B0A55F03-ED6B-4A8E-9091-67D24FFC1ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="52">
   <si>
     <t>tmp0</t>
   </si>
@@ -107,7 +107,91 @@
     <t>sv4</t>
   </si>
   <si>
-    <t>X</t>
+    <t>gtmp0</t>
+  </si>
+  <si>
+    <t>gtmp2</t>
+  </si>
+  <si>
+    <t>gtmp3</t>
+  </si>
+  <si>
+    <t>gtmp4</t>
+  </si>
+  <si>
+    <t>gtmp5</t>
+  </si>
+  <si>
+    <t>gtmp6</t>
+  </si>
+  <si>
+    <t>gtmp7</t>
+  </si>
+  <si>
+    <t>gtmp8</t>
+  </si>
+  <si>
+    <t>gtmp9</t>
+  </si>
+  <si>
+    <t>gtmp10</t>
+  </si>
+  <si>
+    <t>gtmp11</t>
+  </si>
+  <si>
+    <t>gtmp12</t>
+  </si>
+  <si>
+    <t>gtmp13</t>
+  </si>
+  <si>
+    <t>gtmp14</t>
+  </si>
+  <si>
+    <t>gtmp15</t>
+  </si>
+  <si>
+    <t>gtmp16</t>
+  </si>
+  <si>
+    <t>gtmp17</t>
+  </si>
+  <si>
+    <t>gtmp18</t>
+  </si>
+  <si>
+    <t>gtmp1</t>
+  </si>
+  <si>
+    <t>gsv1</t>
+  </si>
+  <si>
+    <t>gsv2</t>
+  </si>
+  <si>
+    <t>gsv3</t>
+  </si>
+  <si>
+    <t>gsv4</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>reg3</t>
+  </si>
+  <si>
+    <t>reg4</t>
+  </si>
+  <si>
+    <t>reg5</t>
+  </si>
+  <si>
+    <t>reg6</t>
   </si>
 </sst>
 </file>
@@ -129,12 +213,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,10 +260,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,86 +606,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4632F3-E745-4045-9EAE-11BBC0114E62}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="T1" s="3">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -599,36 +707,38 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -638,32 +748,36 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -673,26 +787,28 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -704,21 +820,23 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -731,58 +849,62 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
@@ -790,44 +912,46 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
@@ -836,39 +960,41 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
@@ -878,34 +1004,36 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
@@ -916,10 +1044,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -928,9 +1056,11 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
@@ -942,26 +1072,28 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
@@ -974,25 +1106,27 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
@@ -1006,24 +1140,26 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>23</v>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
@@ -1038,23 +1174,25 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>23</v>
+      <c r="N15" s="1"/>
+      <c r="O15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
@@ -1070,22 +1208,24 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>23</v>
+      <c r="O16" s="1"/>
+      <c r="P16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
@@ -1102,21 +1242,23 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>23</v>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
@@ -1134,18 +1276,20 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>23</v>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
@@ -1164,15 +1308,17 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
@@ -1192,39 +1338,43 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="S20" s="1"/>
+      <c r="T20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1234,31 +1384,35 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="T21" s="1"/>
+      <c r="U21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1271,28 +1425,32 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="T22" s="1"/>
+      <c r="U22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1306,25 +1464,29 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="T23" s="1"/>
+      <c r="U23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1339,6 +1501,692 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9</v>
+      </c>
+      <c r="K48" s="3">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
